--- a/BDD/registros/personalempresa.xlsx
+++ b/BDD/registros/personalempresa.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9732"/>
+    <workbookView windowWidth="23040" windowHeight="9287"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -1178,7 +1178,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="2"/>
@@ -1199,7 +1199,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="2:3">
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>1</v>
+      </c>
       <c r="B2">
         <v>14</v>
       </c>
@@ -1207,7 +1210,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:3">
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>2</v>
+      </c>
       <c r="B3">
         <v>10</v>
       </c>
@@ -1215,7 +1221,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:3">
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>3</v>
+      </c>
       <c r="B4">
         <v>11</v>
       </c>
@@ -1223,7 +1232,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:3">
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>4</v>
+      </c>
       <c r="B5">
         <v>2</v>
       </c>
@@ -1231,7 +1243,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:3">
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>5</v>
+      </c>
       <c r="B6">
         <v>4</v>
       </c>
